--- a/map/4.5.xlsx
+++ b/map/4.5.xlsx
@@ -409,7 +409,7 @@
   <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AM13" sqref="AM13"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,10 +513,10 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
+      <c r="M2" s="9"/>
       <c r="N2" s="4"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
@@ -543,10 +543,10 @@
       <c r="J3" s="7"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
+      <c r="M3" s="9"/>
       <c r="N3" s="4"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
@@ -636,8 +636,8 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
       <c r="R6" s="3"/>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
@@ -671,11 +671,11 @@
       <c r="R7" s="3"/>
       <c r="S7" s="4"/>
       <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
       <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
       <c r="Z7" s="9"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
@@ -701,11 +701,11 @@
       <c r="R8" s="3"/>
       <c r="S8" s="4"/>
       <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
       <c r="W8" s="9"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
       <c r="Z8" s="9"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
@@ -717,14 +717,14 @@
       <c r="D9" s="4"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
+      <c r="N9" s="9"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="6"/>
@@ -745,16 +745,16 @@
       <c r="B10" s="4"/>
       <c r="C10" s="3"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
+      <c r="N10" s="9"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
@@ -896,18 +896,18 @@
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
       <c r="R15" s="3"/>
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
@@ -926,18 +926,18 @@
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
+      <c r="Q16" s="4"/>
       <c r="R16" s="3"/>
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
@@ -993,8 +993,8 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
@@ -1029,8 +1029,8 @@
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
@@ -1053,12 +1053,12 @@
       <c r="J20" s="3"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
       <c r="U20" s="3"/>
@@ -1077,18 +1077,18 @@
       <c r="D21" s="4"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
+      <c r="G21" s="4"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="3"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="3"/>
@@ -1164,9 +1164,9 @@
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -1183,7 +1183,7 @@
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
-      <c r="W24" s="9"/>
+      <c r="W24" s="4"/>
       <c r="X24" s="6"/>
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
